--- a/Custom Distributor Master Report.xlsx
+++ b/Custom Distributor Master Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adityakadam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4422CA7-1073-4DDE-92E6-564060EC403E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8C01E2-4887-417D-99FC-5496DDED5A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Distributor Name</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>ABCD</t>
+  </si>
+  <si>
+    <t>AUM Range Criteria</t>
+  </si>
+  <si>
+    <t>Min Yiled</t>
   </si>
 </sst>
 </file>
@@ -194,16 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,11 +486,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -502,20 +502,21 @@
     <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.90625" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,40 +548,46 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -611,25 +618,27 @@
       <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>1234567890</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
